--- a/item.xlsx
+++ b/item.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythons\SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8173F19-ED4D-495F-950B-CC255E6B5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2D475-A943-4725-8E31-F3D7B0CD813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
+    <workbookView xWindow="51480" yWindow="3165" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>02310VPY</t>
   </si>
@@ -206,6 +207,10 @@
   </si>
   <si>
     <t>03056JIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0G2-GIHCND-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,13 +580,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34FC15-AA5B-4EC1-8754-D8A6A8C62C2B}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -644,7 +651,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -655,7 +662,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -1051,4 +1058,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F57FFC-A3E0-4E3A-BEFE-E512708A780C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/item.xlsx
+++ b/item.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythons\SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2D475-A943-4725-8E31-F3D7B0CD813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E35689-268D-4C3A-9E8C-0B77DC4DDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3165" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
+    <workbookView xWindow="51480" yWindow="3165" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>02310VPY</t>
   </si>
@@ -191,15 +192,6 @@
   </si>
   <si>
     <t>HQ4*GIHBFD</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>C_version</t>
-  </si>
-  <si>
-    <t>H_version</t>
   </si>
   <si>
     <t>03056ZHU</t>
@@ -211,6 +203,30 @@
   </si>
   <si>
     <t>HQ0G2-GIHCND-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0G2-GIHCND-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0*GHKAFDdff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0*GHKBPDdffasdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +597,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,13 +609,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -662,7 +678,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -1033,7 +1049,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -1044,7 +1060,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -1062,27 +1078,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F57FFC-A3E0-4E3A-BEFE-E512708A780C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709031D1-7803-4C25-8D68-236FF06F3A3F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/item.xlsx
+++ b/item.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythons\SQLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQLite_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E35689-268D-4C3A-9E8C-0B77DC4DDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10DFE7-79EA-4DF0-9983-EBEBCC228F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3165" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="找差异" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
   <si>
     <t>02310VPY</t>
   </si>
@@ -227,6 +228,18 @@
   </si>
   <si>
     <t>HQ0*GHKBPDdffasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03056091abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0G2-GIHCND-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ0*GHKBNDzhu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34FC15-AA5B-4EC1-8754-D8A6A8C62C2B}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,6 +1090,489 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D909A-CFF1-4E2A-B917-DE30EDA889CE}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F57FFC-A3E0-4E3A-BEFE-E512708A780C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1129,11 +1625,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709031D1-7803-4C25-8D68-236FF06F3A3F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/item.xlsx
+++ b/item.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQLite_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10DFE7-79EA-4DF0-9983-EBEBCC228F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBAC440-D99A-48A0-ABFB-1D7EF465D2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92247C6A-D9CB-49C4-87CF-6FA4A672C728}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="找差异" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="添加" sheetId="2" r:id="rId1"/>
+    <sheet name="更新" sheetId="3" r:id="rId2"/>
+    <sheet name="删除" sheetId="4" r:id="rId3"/>
+    <sheet name="找差异" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34FC15-AA5B-4EC1-8754-D8A6A8C62C2B}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,10 +1090,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F57FFC-A3E0-4E3A-BEFE-E512708A780C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709031D1-7803-4C25-8D68-236FF06F3A3F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D909A-CFF1-4E2A-B917-DE30EDA889CE}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1570,88 +1654,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F57FFC-A3E0-4E3A-BEFE-E512708A780C}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709031D1-7803-4C25-8D68-236FF06F3A3F}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>